--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>754582.5131091402</v>
+        <v>750754.9060620959</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33305450.46443975</v>
+        <v>33305450.46443976</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6063412.656816709</v>
+        <v>6063412.656816706</v>
       </c>
     </row>
     <row r="9">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.48781516894358</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>13.48781516894323</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>13.48781516894323</v>
       </c>
       <c r="E5" t="n">
-        <v>13.48781516894358</v>
+        <v>13.48781516894323</v>
       </c>
       <c r="F5" t="n">
-        <v>13.48781516894358</v>
+        <v>11.07316755772819</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>11.8800676008055</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>13.48781516894358</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>13.48781516894323</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>13.48781516894358</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>11.8800676008055</v>
+        <v>11.8800676008052</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>13.48781516894323</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>13.48781516894323</v>
       </c>
       <c r="W6" t="n">
-        <v>13.48781516894358</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>11.88006760080519</v>
       </c>
       <c r="D7" t="n">
-        <v>11.8800676008055</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>13.48781516894323</v>
       </c>
       <c r="F7" t="n">
-        <v>13.48781516894358</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>13.48781516894358</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>13.48781516894323</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>13.48781516894358</v>
+        <v>13.48781516894323</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>37.06736141641883</v>
       </c>
       <c r="D9" t="n">
         <v>41.31500304752735</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>37.06736141641883</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,67 +1299,67 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="F10" t="n">
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>18.54795713427877</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>36.39025468426209</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>338.6251682162973</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>213.5382021707743</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1533,22 +1533,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>86.38976318987905</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>130.2268889427771</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>39.6646919788192</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>274.0803980542728</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>192.6912226408916</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1830,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>207.7727077163316</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>404.3817318844246</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>133.2278366098963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2013,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
@@ -2064,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>118.7792172417406</v>
+        <v>186.3945973787185</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>174.1566987281495</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>230.1295436120415</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>174.5741148603164</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>160.733512253838</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2304,10 +2304,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2329,10 +2329,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>317.2979711430262</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>304.9980143050614</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2496,7 +2496,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2566,10 +2566,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>273.8353312190478</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>296.0058434420596</v>
       </c>
     </row>
     <row r="27">
@@ -2733,7 +2733,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>385.5118048112504</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>432.3806237907693</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2970,7 +2970,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3037,16 +3037,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.201484174371973</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>139.4414240887039</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3207,7 +3207,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>151.685641166581</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>192.3085274337922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H36" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>118.3474735769326</v>
+        <v>54.3166146207495</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>357.9222238053401</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735101</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>98.29831047704025</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3599,7 +3599,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H39" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>54.3166146207495</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3678,10 +3678,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>240.4376362281545</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>121.8623106060168</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>212.129804500952</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H42" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>16.7468308976486</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>126.6566641907155</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>23.24787477675976</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735101</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>158.1311462694395</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5873335446375</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4200,10 +4200,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>129.2558279457862</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28.32713666592677</v>
+        <v>53.1362101272103</v>
       </c>
       <c r="C5" t="n">
-        <v>28.32713666592677</v>
+        <v>39.51215440100502</v>
       </c>
       <c r="D5" t="n">
-        <v>28.32713666592677</v>
+        <v>25.88809867479973</v>
       </c>
       <c r="E5" t="n">
-        <v>14.70308093972113</v>
+        <v>12.26404294859444</v>
       </c>
       <c r="F5" t="n">
-        <v>1.079025213515487</v>
+        <v>1.079025213515459</v>
       </c>
       <c r="G5" t="n">
-        <v>1.079025213515487</v>
+        <v>1.079025213515459</v>
       </c>
       <c r="H5" t="n">
-        <v>1.079025213515487</v>
+        <v>1.079025213515459</v>
       </c>
       <c r="I5" t="n">
-        <v>2.319676963882458</v>
+        <v>2.31967696388239</v>
       </c>
       <c r="J5" t="n">
-        <v>5.950292136426192</v>
+        <v>5.95029213642603</v>
       </c>
       <c r="K5" t="n">
-        <v>11.39164314017541</v>
+        <v>11.3916431401751</v>
       </c>
       <c r="L5" t="n">
-        <v>18.14212021749549</v>
+        <v>18.14212021749501</v>
       </c>
       <c r="M5" t="n">
-        <v>25.65332664369818</v>
+        <v>25.6533266436975</v>
       </c>
       <c r="N5" t="n">
-        <v>33.28607224260136</v>
+        <v>33.2860722426005</v>
       </c>
       <c r="O5" t="n">
-        <v>40.49345747246252</v>
+        <v>40.49345747246146</v>
       </c>
       <c r="P5" t="n">
-        <v>46.64479401739843</v>
+        <v>46.64479401739722</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.26419158394913</v>
+        <v>51.26419158394779</v>
       </c>
       <c r="R5" t="n">
-        <v>53.95126067577434</v>
+        <v>53.95126067577294</v>
       </c>
       <c r="S5" t="n">
-        <v>53.95126067577434</v>
+        <v>53.95126067577294</v>
       </c>
       <c r="T5" t="n">
-        <v>53.95126067577434</v>
+        <v>53.95126067577294</v>
       </c>
       <c r="U5" t="n">
-        <v>53.95126067577434</v>
+        <v>53.95126067577294</v>
       </c>
       <c r="V5" t="n">
-        <v>53.95126067577434</v>
+        <v>53.95126067577294</v>
       </c>
       <c r="W5" t="n">
-        <v>53.95126067577434</v>
+        <v>53.1362101272103</v>
       </c>
       <c r="X5" t="n">
-        <v>41.95119239213241</v>
+        <v>53.1362101272103</v>
       </c>
       <c r="Y5" t="n">
-        <v>41.95119239213241</v>
+        <v>53.1362101272103</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.70308093972113</v>
+        <v>14.70308093972075</v>
       </c>
       <c r="C6" t="n">
-        <v>14.70308093972113</v>
+        <v>14.70308093972075</v>
       </c>
       <c r="D6" t="n">
-        <v>14.70308093972113</v>
+        <v>14.70308093972075</v>
       </c>
       <c r="E6" t="n">
-        <v>14.70308093972113</v>
+        <v>14.70308093972075</v>
       </c>
       <c r="F6" t="n">
-        <v>1.079025213515487</v>
+        <v>14.70308093972075</v>
       </c>
       <c r="G6" t="n">
-        <v>1.079025213515487</v>
+        <v>14.70308093972075</v>
       </c>
       <c r="H6" t="n">
-        <v>1.079025213515487</v>
+        <v>1.079025213515459</v>
       </c>
       <c r="I6" t="n">
-        <v>1.867038804705341</v>
+        <v>1.867038804705293</v>
       </c>
       <c r="J6" t="n">
-        <v>4.029408329268483</v>
+        <v>4.029408329268379</v>
       </c>
       <c r="K6" t="n">
-        <v>7.725242263897385</v>
+        <v>7.725242263897186</v>
       </c>
       <c r="L6" t="n">
-        <v>12.69474708324181</v>
+        <v>12.69474708324148</v>
       </c>
       <c r="M6" t="n">
-        <v>18.49392481101734</v>
+        <v>18.53226515233601</v>
       </c>
       <c r="N6" t="n">
-        <v>24.44658951725519</v>
+        <v>31.88520216958981</v>
       </c>
       <c r="O6" t="n">
-        <v>29.89211477601647</v>
+        <v>45.23813918684361</v>
       </c>
       <c r="P6" t="n">
-        <v>34.26262888215964</v>
+        <v>49.60865329298667</v>
       </c>
       <c r="Q6" t="n">
-        <v>40.59832365852019</v>
+        <v>52.5302262303101</v>
       </c>
       <c r="R6" t="n">
-        <v>53.95126067577434</v>
+        <v>53.95126067577294</v>
       </c>
       <c r="S6" t="n">
-        <v>40.3272049495687</v>
+        <v>53.95126067577294</v>
       </c>
       <c r="T6" t="n">
-        <v>28.32713666592677</v>
+        <v>41.95119239213132</v>
       </c>
       <c r="U6" t="n">
-        <v>28.32713666592677</v>
+        <v>28.32713666592603</v>
       </c>
       <c r="V6" t="n">
-        <v>28.32713666592677</v>
+        <v>14.70308093972075</v>
       </c>
       <c r="W6" t="n">
-        <v>14.70308093972113</v>
+        <v>14.70308093972075</v>
       </c>
       <c r="X6" t="n">
-        <v>14.70308093972113</v>
+        <v>14.70308093972075</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.70308093972113</v>
+        <v>14.70308093972075</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.3272049495687</v>
+        <v>40.32720494956764</v>
       </c>
       <c r="C7" t="n">
-        <v>40.3272049495687</v>
+        <v>28.32713666592603</v>
       </c>
       <c r="D7" t="n">
-        <v>28.32713666592677</v>
+        <v>28.32713666592603</v>
       </c>
       <c r="E7" t="n">
-        <v>28.32713666592677</v>
+        <v>14.70308093972075</v>
       </c>
       <c r="F7" t="n">
-        <v>14.70308093972113</v>
+        <v>14.70308093972075</v>
       </c>
       <c r="G7" t="n">
-        <v>1.079025213515487</v>
+        <v>14.70308093972075</v>
       </c>
       <c r="H7" t="n">
-        <v>1.079025213515487</v>
+        <v>14.70308093972075</v>
       </c>
       <c r="I7" t="n">
-        <v>1.079025213515487</v>
+        <v>1.079025213515459</v>
       </c>
       <c r="J7" t="n">
-        <v>2.43562636222688</v>
+        <v>14.43196223076926</v>
       </c>
       <c r="K7" t="n">
-        <v>4.664938780965675</v>
+        <v>16.66127464950799</v>
       </c>
       <c r="L7" t="n">
-        <v>7.51769115154895</v>
+        <v>19.5140270200912</v>
       </c>
       <c r="M7" t="n">
-        <v>10.52551854093182</v>
+        <v>22.52185440947399</v>
       </c>
       <c r="N7" t="n">
-        <v>23.87845555818597</v>
+        <v>25.45816238636203</v>
       </c>
       <c r="O7" t="n">
-        <v>37.23139257544011</v>
+        <v>28.17031805823605</v>
       </c>
       <c r="P7" t="n">
-        <v>40.59832365852019</v>
+        <v>40.59832365851913</v>
       </c>
       <c r="Q7" t="n">
-        <v>53.95126067577434</v>
+        <v>53.95126067577294</v>
       </c>
       <c r="R7" t="n">
-        <v>40.3272049495687</v>
+        <v>40.32720494956764</v>
       </c>
       <c r="S7" t="n">
-        <v>40.3272049495687</v>
+        <v>40.32720494956764</v>
       </c>
       <c r="T7" t="n">
-        <v>40.3272049495687</v>
+        <v>40.32720494956764</v>
       </c>
       <c r="U7" t="n">
-        <v>40.3272049495687</v>
+        <v>40.32720494956764</v>
       </c>
       <c r="V7" t="n">
-        <v>40.3272049495687</v>
+        <v>40.32720494956764</v>
       </c>
       <c r="W7" t="n">
-        <v>40.3272049495687</v>
+        <v>40.32720494956764</v>
       </c>
       <c r="X7" t="n">
-        <v>40.3272049495687</v>
+        <v>40.32720494956764</v>
       </c>
       <c r="Y7" t="n">
-        <v>40.3272049495687</v>
+        <v>40.32720494956764</v>
       </c>
     </row>
     <row r="8">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.08590667097184</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="C9" t="n">
         <v>86.08590667097184</v>
@@ -4880,25 +4880,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>30.07714055499348</v>
+        <v>5.706527910441171</v>
       </c>
       <c r="J9" t="n">
-        <v>36.666567213219</v>
+        <v>12.29595456866669</v>
       </c>
       <c r="K9" t="n">
-        <v>47.92894692056262</v>
+        <v>23.55833427601031</v>
       </c>
       <c r="L9" t="n">
-        <v>63.07260630106745</v>
+        <v>38.70199365651513</v>
       </c>
       <c r="M9" t="n">
-        <v>103.9744593181195</v>
+        <v>56.37392987329654</v>
       </c>
       <c r="N9" t="n">
-        <v>122.1141191020718</v>
+        <v>74.51358965724877</v>
       </c>
       <c r="O9" t="n">
-        <v>138.7083639341947</v>
+        <v>115.4154426743008</v>
       </c>
       <c r="P9" t="n">
         <v>152.0267083864403</v>
@@ -4910,25 +4910,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X9" t="n">
-        <v>86.08590667097184</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y9" t="n">
-        <v>86.08590667097184</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C10" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D10" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E10" t="n">
-        <v>81.79535956884203</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F10" t="n">
-        <v>40.06303325820834</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G10" t="n">
-        <v>40.06303325820834</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H10" t="n">
-        <v>40.06303325820834</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
@@ -4971,10 +4971,10 @@
         <v>22.9258601234117</v>
       </c>
       <c r="M10" t="n">
-        <v>63.82771314046379</v>
+        <v>32.09166539295484</v>
       </c>
       <c r="N10" t="n">
-        <v>75.19150650798248</v>
+        <v>72.99351841000691</v>
       </c>
       <c r="O10" t="n">
         <v>83.45630615600527</v>
@@ -4986,28 +4986,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
-        <v>123.5276858794757</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T10" t="n">
-        <v>123.5276858794757</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U10" t="n">
-        <v>123.5276858794757</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="V10" t="n">
-        <v>123.5276858794757</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="W10" t="n">
-        <v>123.5276858794757</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="X10" t="n">
-        <v>123.5276858794757</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="Y10" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>446.7092428694776</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="C11" t="n">
-        <v>446.7092428694776</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="D11" t="n">
-        <v>446.7092428694776</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E11" t="n">
-        <v>446.7092428694776</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F11" t="n">
-        <v>446.7092428694776</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J11" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
         <v>2043.069798152528</v>
@@ -5080,13 +5080,13 @@
         <v>1486.402314586986</v>
       </c>
       <c r="W11" t="n">
-        <v>1081.54685999802</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X11" t="n">
-        <v>662.4043965773304</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="Y11" t="n">
-        <v>446.7092428694776</v>
+        <v>658.9737274659507</v>
       </c>
     </row>
     <row r="12">
@@ -5135,7 +5135,7 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>616.0817647851416</v>
+        <v>750.041858240633</v>
       </c>
       <c r="C13" t="n">
-        <v>443.5200532683665</v>
+        <v>577.480146723858</v>
       </c>
       <c r="D13" t="n">
-        <v>356.2576662078826</v>
+        <v>411.6021539253807</v>
       </c>
       <c r="E13" t="n">
-        <v>356.2576662078826</v>
+        <v>241.8441501761179</v>
       </c>
       <c r="F13" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G13" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
         <v>47.20655154895473</v>
@@ -5202,22 +5202,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>477.6707703898316</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>1019.75145377609</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M13" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V13" t="n">
-        <v>1552.738213270316</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.711808856608</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X13" t="n">
-        <v>1035.320054190021</v>
+        <v>1169.280147645512</v>
       </c>
       <c r="Y13" t="n">
-        <v>807.9003835041287</v>
+        <v>941.8604769596202</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>914.6420178934205</v>
+        <v>1616.712750254118</v>
       </c>
       <c r="C14" t="n">
-        <v>914.6420178934205</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="D14" t="n">
-        <v>914.6420178934205</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E14" t="n">
-        <v>914.6420178934205</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F14" t="n">
-        <v>486.7745883026283</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G14" t="n">
-        <v>87.27189698210543</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228011</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867018</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
         <v>1131.588690455489</v>
@@ -5302,28 +5302,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U14" t="n">
-        <v>2101.25688596925</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V14" t="n">
-        <v>1738.639935903077</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W14" t="n">
-        <v>1333.78448131411</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X14" t="n">
-        <v>914.6420178934205</v>
+        <v>2043.012320739026</v>
       </c>
       <c r="Y14" t="n">
-        <v>914.6420178934205</v>
+        <v>2043.012320739026</v>
       </c>
     </row>
     <row r="15">
@@ -5351,7 +5351,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
         <v>81.42328772043084</v>
@@ -5360,13 +5360,13 @@
         <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987878</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,55 +5412,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>555.4042596134699</v>
+        <v>926.413848425154</v>
       </c>
       <c r="C16" t="n">
-        <v>382.8425480966948</v>
+        <v>753.852136908379</v>
       </c>
       <c r="D16" t="n">
-        <v>216.9645552982175</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E16" t="n">
-        <v>47.20655154895472</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895472</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895472</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>326.7831174369939</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>910.9641928553085</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N16" t="n">
-        <v>1480.721907816843</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O16" t="n">
-        <v>2018.157038390386</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
         <v>2215.901038951971</v>
@@ -5469,19 +5469,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1779.016216228214</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1492.060708098645</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W16" t="n">
-        <v>1220.034303684936</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X16" t="n">
-        <v>974.6425490183487</v>
+        <v>926.413848425154</v>
       </c>
       <c r="Y16" t="n">
-        <v>747.222878332457</v>
+        <v>926.413848425154</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2013.98275358362</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="C17" t="n">
-        <v>2013.98275358362</v>
+        <v>855.1756387123307</v>
       </c>
       <c r="D17" t="n">
-        <v>1578.072968758064</v>
+        <v>855.1756387123307</v>
       </c>
       <c r="E17" t="n">
-        <v>1144.298223916359</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F17" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001353</v>
@@ -5539,28 +5539,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2148.556325916848</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2148.556325916848</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V17" t="n">
-        <v>2148.556325916848</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W17" t="n">
-        <v>2148.556325916848</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X17" t="n">
-        <v>2148.556325916848</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="Y17" t="n">
-        <v>2013.98275358362</v>
+        <v>1293.318111528907</v>
       </c>
     </row>
     <row r="18">
@@ -5588,7 +5588,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
         <v>81.42328772043084</v>
@@ -5597,19 +5597,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>959.9477806029472</v>
+        <v>555.4042596134699</v>
       </c>
       <c r="C19" t="n">
-        <v>787.3860690861721</v>
+        <v>382.8425480966948</v>
       </c>
       <c r="D19" t="n">
-        <v>621.5080762876948</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="E19" t="n">
-        <v>451.7500725384321</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F19" t="n">
-        <v>275.0430185001883</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>744.9929992049549</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M19" t="n">
-        <v>1329.174074623269</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N19" t="n">
-        <v>1898.931789584804</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.320157362629</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W19" t="n">
-        <v>1432.759205955427</v>
+        <v>1220.034303684936</v>
       </c>
       <c r="X19" t="n">
-        <v>1187.367451288839</v>
+        <v>974.6425490183487</v>
       </c>
       <c r="Y19" t="n">
-        <v>959.9477806029472</v>
+        <v>747.222878332457</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1486.402314586986</v>
+        <v>717.8031088221391</v>
       </c>
       <c r="C20" t="n">
-        <v>1310.486457285825</v>
+        <v>279.6606360055624</v>
       </c>
       <c r="D20" t="n">
-        <v>874.5766724602698</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E20" t="n">
-        <v>874.5766724602698</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F20" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G20" t="n">
         <v>47.20655154895473</v>
@@ -5749,25 +5749,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L20" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
         <v>2043.069798152528</v>
@@ -5782,22 +5782,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V20" t="n">
-        <v>1486.402314586986</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W20" t="n">
-        <v>1486.402314586986</v>
+        <v>1552.388803007393</v>
       </c>
       <c r="X20" t="n">
-        <v>1486.402314586986</v>
+        <v>1552.388803007393</v>
       </c>
       <c r="Y20" t="n">
-        <v>1486.402314586986</v>
+        <v>1144.102679307047</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
         <v>341.0245550495863</v>
@@ -5822,22 +5822,22 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
         <v>803.387703298788</v>
@@ -5846,7 +5846,7 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
         <v>1488.088567599445</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>959.9477806029472</v>
+        <v>894.4683967363985</v>
       </c>
       <c r="C22" t="n">
-        <v>787.3860690861721</v>
+        <v>721.9066852196235</v>
       </c>
       <c r="D22" t="n">
-        <v>621.5080762876948</v>
+        <v>556.0286924211462</v>
       </c>
       <c r="E22" t="n">
-        <v>451.7500725384321</v>
+        <v>386.2706886718834</v>
       </c>
       <c r="F22" t="n">
-        <v>275.0430185001883</v>
+        <v>209.5636346336396</v>
       </c>
       <c r="G22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>393.4422361027639</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>935.5229194890228</v>
+        <v>588.0160255186812</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.127311827552</v>
+        <v>718.6204178572107</v>
       </c>
       <c r="N22" t="n">
-        <v>1635.885026789086</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P22" t="n">
         <v>2274.089213540313</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774551</v>
+        <v>1831.124845221573</v>
       </c>
       <c r="W22" t="n">
-        <v>1136.285270360843</v>
+        <v>1559.098440807865</v>
       </c>
       <c r="X22" t="n">
-        <v>1136.285270360843</v>
+        <v>1313.706686141277</v>
       </c>
       <c r="Y22" t="n">
-        <v>1136.285270360843</v>
+        <v>1086.287015455386</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1688.202608553369</v>
+        <v>2103.645839317934</v>
       </c>
       <c r="C23" t="n">
-        <v>1250.060135736792</v>
+        <v>1665.503366501358</v>
       </c>
       <c r="D23" t="n">
-        <v>814.1503509112367</v>
+        <v>1229.593581675802</v>
       </c>
       <c r="E23" t="n">
-        <v>380.3756060695319</v>
+        <v>795.8188368340971</v>
       </c>
       <c r="F23" t="n">
-        <v>59.87260491495994</v>
+        <v>367.9514072433048</v>
       </c>
       <c r="G23" t="n">
         <v>59.87260491495994</v>
@@ -5989,25 +5989,25 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J23" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K23" t="n">
-        <v>671.8044010797021</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L23" t="n">
-        <v>964.9202759436026</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M23" t="n">
-        <v>1291.06816411239</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N23" t="n">
-        <v>1622.493466088867</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O23" t="n">
-        <v>1935.44898063016</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P23" t="n">
-        <v>2676.372466452789</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q23" t="n">
         <v>2876.953661463856</v>
@@ -6031,10 +6031,10 @@
         <v>2522.788302738623</v>
       </c>
       <c r="X23" t="n">
-        <v>2522.788302738623</v>
+        <v>2103.645839317934</v>
       </c>
       <c r="Y23" t="n">
-        <v>2114.502179038277</v>
+        <v>2103.645839317934</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1859.550434580796</v>
+        <v>555.2373584323959</v>
       </c>
       <c r="C24" t="n">
-        <v>1753.093973417439</v>
+        <v>448.7808972690382</v>
       </c>
       <c r="D24" t="n">
-        <v>1658.003684563992</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E24" t="n">
-        <v>1563.883269890945</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F24" t="n">
-        <v>1480.499431507107</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G24" t="n">
-        <v>1396.128331096764</v>
+        <v>91.81525494836369</v>
       </c>
       <c r="H24" t="n">
-        <v>1364.18568106336</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="I24" t="n">
-        <v>1398.402417234837</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J24" t="n">
-        <v>1492.295756581304</v>
+        <v>187.9826804329032</v>
       </c>
       <c r="K24" t="n">
-        <v>1652.774428635474</v>
+        <v>348.4613524870734</v>
       </c>
       <c r="L24" t="n">
-        <v>1868.557807510496</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M24" t="n">
-        <v>2120.366832813193</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N24" t="n">
-        <v>2378.840493734513</v>
+        <v>1074.527417586113</v>
       </c>
       <c r="O24" t="n">
-        <v>2615.293396549044</v>
+        <v>1310.980320400644</v>
       </c>
       <c r="P24" t="n">
-        <v>2805.06769711385</v>
+        <v>1500.75462096545</v>
       </c>
       <c r="Q24" t="n">
-        <v>2931.926791322084</v>
+        <v>1627.613715173684</v>
       </c>
       <c r="R24" t="n">
-        <v>2993.630245747997</v>
+        <v>1689.317169599597</v>
       </c>
       <c r="S24" t="n">
-        <v>2949.009215147731</v>
+        <v>1644.696138999331</v>
       </c>
       <c r="T24" t="n">
-        <v>2822.917660023384</v>
+        <v>1518.604583874984</v>
       </c>
       <c r="U24" t="n">
-        <v>2646.647822847265</v>
+        <v>1342.334746698865</v>
       </c>
       <c r="V24" t="n">
-        <v>2447.530304909264</v>
+        <v>1143.217228760864</v>
       </c>
       <c r="W24" t="n">
-        <v>2262.207550642459</v>
+        <v>957.8944744940584</v>
       </c>
       <c r="X24" t="n">
-        <v>2107.340114881339</v>
+        <v>803.0270387329383</v>
       </c>
       <c r="Y24" t="n">
-        <v>1980.854335660559</v>
+        <v>676.5412595121591</v>
       </c>
     </row>
     <row r="25">
@@ -6138,10 +6138,10 @@
         <v>420.0531324868775</v>
       </c>
       <c r="G25" t="n">
-        <v>255.3119520993958</v>
+        <v>255.311952099396</v>
       </c>
       <c r="H25" t="n">
-        <v>122.9678914787119</v>
+        <v>122.9678914787117</v>
       </c>
       <c r="I25" t="n">
         <v>59.87260491495994</v>
@@ -6153,19 +6153,19 @@
         <v>576.9165089205267</v>
       </c>
       <c r="L25" t="n">
-        <v>1118.997192306786</v>
+        <v>700.7873105388245</v>
       </c>
       <c r="M25" t="n">
-        <v>1351.923086157471</v>
+        <v>1290.875570058267</v>
       </c>
       <c r="N25" t="n">
-        <v>1921.680801119006</v>
+        <v>1860.633285019801</v>
       </c>
       <c r="O25" t="n">
-        <v>2459.115931692549</v>
+        <v>2398.068415593345</v>
       </c>
       <c r="P25" t="n">
-        <v>2907.391881840574</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q25" t="n">
         <v>2977.159153071229</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2464.791279766202</v>
+        <v>1637.421158854886</v>
       </c>
       <c r="C26" t="n">
-        <v>2026.648806949625</v>
+        <v>1199.27868603831</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.739022124069</v>
+        <v>763.3689012127543</v>
       </c>
       <c r="E26" t="n">
-        <v>1156.964277282364</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="F26" t="n">
-        <v>729.0968476915723</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="G26" t="n">
         <v>329.5941563710495</v>
@@ -6253,25 +6253,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S26" t="n">
-        <v>2953.163875962794</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="T26" t="n">
-        <v>2741.392624431906</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="U26" t="n">
-        <v>2741.392624431906</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="V26" t="n">
-        <v>2464.791279766202</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="W26" t="n">
-        <v>2464.791279766202</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="X26" t="n">
-        <v>2464.791279766202</v>
+        <v>2362.71653079642</v>
       </c>
       <c r="Y26" t="n">
-        <v>2464.791279766202</v>
+        <v>2063.720729339794</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1859.550434580796</v>
+        <v>555.2373584323959</v>
       </c>
       <c r="C27" t="n">
-        <v>1753.093973417439</v>
+        <v>448.7808972690382</v>
       </c>
       <c r="D27" t="n">
-        <v>1658.003684563992</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E27" t="n">
-        <v>1563.883269890945</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F27" t="n">
-        <v>1480.499431507107</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G27" t="n">
-        <v>1396.128331096764</v>
+        <v>91.81525494836369</v>
       </c>
       <c r="H27" t="n">
-        <v>1364.18568106336</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="I27" t="n">
-        <v>1398.402417234837</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J27" t="n">
-        <v>1492.295756581304</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K27" t="n">
-        <v>1652.774428635474</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L27" t="n">
-        <v>1868.557807510496</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M27" t="n">
-        <v>2120.366832813193</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N27" t="n">
-        <v>2378.840493734513</v>
+        <v>1074.527417586113</v>
       </c>
       <c r="O27" t="n">
-        <v>2615.293396549044</v>
+        <v>1310.980320400644</v>
       </c>
       <c r="P27" t="n">
-        <v>2805.06769711385</v>
+        <v>1500.75462096545</v>
       </c>
       <c r="Q27" t="n">
-        <v>2931.926791322084</v>
+        <v>1627.613715173684</v>
       </c>
       <c r="R27" t="n">
-        <v>2993.630245747997</v>
+        <v>1689.317169599597</v>
       </c>
       <c r="S27" t="n">
-        <v>2949.009215147731</v>
+        <v>1644.696138999331</v>
       </c>
       <c r="T27" t="n">
-        <v>2822.917660023384</v>
+        <v>1518.604583874984</v>
       </c>
       <c r="U27" t="n">
-        <v>2646.647822847265</v>
+        <v>1342.334746698865</v>
       </c>
       <c r="V27" t="n">
-        <v>2447.530304909264</v>
+        <v>1143.217228760864</v>
       </c>
       <c r="W27" t="n">
-        <v>2262.207550642459</v>
+        <v>957.8944744940584</v>
       </c>
       <c r="X27" t="n">
-        <v>2107.340114881339</v>
+        <v>803.0270387329383</v>
       </c>
       <c r="Y27" t="n">
-        <v>1980.854335660559</v>
+        <v>676.5412595121591</v>
       </c>
     </row>
     <row r="28">
@@ -6372,10 +6372,10 @@
         <v>596.7601865251213</v>
       </c>
       <c r="F28" t="n">
-        <v>420.0531324868776</v>
+        <v>420.0531324868775</v>
       </c>
       <c r="G28" t="n">
-        <v>255.311952099396</v>
+        <v>255.3119520993958</v>
       </c>
       <c r="H28" t="n">
         <v>122.9678914787119</v>
@@ -6384,25 +6384,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J28" t="n">
-        <v>118.778268617143</v>
+        <v>118.7782686171431</v>
       </c>
       <c r="K28" t="n">
-        <v>219.75414325177</v>
+        <v>219.7541432517691</v>
       </c>
       <c r="L28" t="n">
-        <v>761.8348266380289</v>
+        <v>761.8348266380279</v>
       </c>
       <c r="M28" t="n">
-        <v>1351.923086157471</v>
+        <v>1351.92308615747</v>
       </c>
       <c r="N28" t="n">
-        <v>1921.680801119006</v>
+        <v>1921.680801119005</v>
       </c>
       <c r="O28" t="n">
-        <v>2459.115931692549</v>
+        <v>2459.115931692548</v>
       </c>
       <c r="P28" t="n">
-        <v>2907.391881840574</v>
+        <v>2907.391881840573</v>
       </c>
       <c r="Q28" t="n">
         <v>2977.159153071229</v>
@@ -6411,7 +6411,7 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S28" t="n">
-        <v>2849.203707252231</v>
+        <v>2849.203707252232</v>
       </c>
       <c r="T28" t="n">
         <v>2606.956483155638</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>498.0150777315366</v>
+        <v>1358.262884186618</v>
       </c>
       <c r="C29" t="n">
-        <v>59.87260491495994</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="D29" t="n">
-        <v>59.87260491495994</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="E29" t="n">
-        <v>59.87260491495994</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="F29" t="n">
         <v>59.87260491495994</v>
@@ -6463,25 +6463,25 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J29" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K29" t="n">
-        <v>524.9909807888066</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L29" t="n">
-        <v>818.1068556527073</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M29" t="n">
-        <v>1559.030341475336</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N29" t="n">
-        <v>1890.455643451814</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O29" t="n">
-        <v>2409.27217527352</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P29" t="n">
-        <v>2676.372466452789</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q29" t="n">
         <v>2876.953661463856</v>
@@ -6493,22 +6493,22 @@
         <v>2953.163875962794</v>
       </c>
       <c r="T29" t="n">
-        <v>2741.392624431906</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="U29" t="n">
-        <v>2482.32193295342</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="V29" t="n">
-        <v>2119.704982887247</v>
+        <v>2590.54692589662</v>
       </c>
       <c r="W29" t="n">
-        <v>1714.84952829828</v>
+        <v>2185.691471307654</v>
       </c>
       <c r="X29" t="n">
-        <v>1295.707064877591</v>
+        <v>1766.549007886965</v>
       </c>
       <c r="Y29" t="n">
-        <v>887.4209411772441</v>
+        <v>1358.262884186618</v>
       </c>
     </row>
     <row r="30">
@@ -6545,7 +6545,7 @@
         <v>187.9826804329032</v>
       </c>
       <c r="K30" t="n">
-        <v>348.4613524870733</v>
+        <v>348.4613524870734</v>
       </c>
       <c r="L30" t="n">
         <v>564.2447313620956</v>
@@ -6621,22 +6621,22 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J31" t="n">
-        <v>118.778268617143</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K31" t="n">
-        <v>490.3368237558368</v>
+        <v>469.7712501553982</v>
       </c>
       <c r="L31" t="n">
-        <v>614.2076253741348</v>
+        <v>593.6420517736962</v>
       </c>
       <c r="M31" t="n">
-        <v>1204.295884893577</v>
+        <v>1183.730311293139</v>
       </c>
       <c r="N31" t="n">
-        <v>1774.053599855112</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O31" t="n">
-        <v>2311.488730428655</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P31" t="n">
         <v>2739.199106976242</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1795.567036989589</v>
+        <v>1766.549007886965</v>
       </c>
       <c r="C32" t="n">
-        <v>1357.424564173013</v>
+        <v>1328.406535070388</v>
       </c>
       <c r="D32" t="n">
-        <v>921.5147793474571</v>
+        <v>892.4967502448326</v>
       </c>
       <c r="E32" t="n">
-        <v>487.7400345057522</v>
+        <v>892.4967502448326</v>
       </c>
       <c r="F32" t="n">
-        <v>59.87260491495994</v>
+        <v>464.6293206540403</v>
       </c>
       <c r="G32" t="n">
-        <v>59.87260491495994</v>
+        <v>65.12662933351749</v>
       </c>
       <c r="H32" t="n">
         <v>59.87260491495994</v>
@@ -6703,7 +6703,7 @@
         <v>723.9740178625037</v>
       </c>
       <c r="K32" t="n">
-        <v>960.2456682417246</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L32" t="n">
         <v>1253.361543105625</v>
@@ -6721,31 +6721,31 @@
         <v>2490.990538971451</v>
       </c>
       <c r="Q32" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R32" t="n">
         <v>2993.630245747997</v>
       </c>
       <c r="S32" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T32" t="n">
-        <v>2781.858994217109</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="U32" t="n">
-        <v>2641.009070895186</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="V32" t="n">
-        <v>2641.009070895186</v>
+        <v>2590.54692589662</v>
       </c>
       <c r="W32" t="n">
-        <v>2641.009070895186</v>
+        <v>2185.691471307654</v>
       </c>
       <c r="X32" t="n">
-        <v>2221.866607474497</v>
+        <v>1766.549007886965</v>
       </c>
       <c r="Y32" t="n">
-        <v>2221.866607474497</v>
+        <v>1766.549007886965</v>
       </c>
     </row>
     <row r="33">
@@ -6779,16 +6779,16 @@
         <v>94.08934108643605</v>
       </c>
       <c r="J33" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K33" t="n">
-        <v>348.4613524870736</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L33" t="n">
-        <v>564.2447313620959</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M33" t="n">
-        <v>816.0537566647932</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N33" t="n">
         <v>1074.527417586113</v>
@@ -6837,16 +6837,16 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C34" t="n">
-        <v>932.3961830728613</v>
+        <v>932.3961830728608</v>
       </c>
       <c r="D34" t="n">
-        <v>766.5181902743841</v>
+        <v>766.5181902743836</v>
       </c>
       <c r="E34" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251208</v>
       </c>
       <c r="F34" t="n">
-        <v>420.0531324868776</v>
+        <v>420.0531324868771</v>
       </c>
       <c r="G34" t="n">
         <v>255.311952099396</v>
@@ -6861,16 +6861,16 @@
         <v>205.3579537818329</v>
       </c>
       <c r="K34" t="n">
-        <v>576.9165089205267</v>
+        <v>469.7712501553982</v>
       </c>
       <c r="L34" t="n">
-        <v>1118.997192306786</v>
+        <v>593.6420517736962</v>
       </c>
       <c r="M34" t="n">
-        <v>1709.085451826228</v>
+        <v>1183.730311293139</v>
       </c>
       <c r="N34" t="n">
-        <v>1836.584363630118</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O34" t="n">
         <v>2290.923156828216</v>
@@ -6885,25 +6885,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S34" t="n">
-        <v>2849.203707252232</v>
+        <v>2849.203707252231</v>
       </c>
       <c r="T34" t="n">
         <v>2606.956483155638</v>
       </c>
       <c r="U34" t="n">
-        <v>2328.569851204381</v>
+        <v>2328.56985120438</v>
       </c>
       <c r="V34" t="n">
         <v>2041.614343074811</v>
       </c>
       <c r="W34" t="n">
-        <v>1769.587938661103</v>
+        <v>1769.587938661102</v>
       </c>
       <c r="X34" t="n">
         <v>1524.196183994515</v>
       </c>
       <c r="Y34" t="n">
-        <v>1296.776513308624</v>
+        <v>1296.776513308623</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>446.7092428694776</v>
+        <v>1743.700871327882</v>
       </c>
       <c r="C35" t="n">
-        <v>446.7092428694776</v>
+        <v>1305.558398511306</v>
       </c>
       <c r="D35" t="n">
-        <v>446.7092428694776</v>
+        <v>869.64861368575</v>
       </c>
       <c r="E35" t="n">
-        <v>446.7092428694776</v>
+        <v>869.64861368575</v>
       </c>
       <c r="F35" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
@@ -6943,7 +6943,7 @@
         <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
@@ -6961,28 +6961,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>1849.01926465316</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V35" t="n">
-        <v>1486.402314586986</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W35" t="n">
-        <v>1486.402314586986</v>
+        <v>1743.700871327882</v>
       </c>
       <c r="X35" t="n">
-        <v>1067.259851166297</v>
+        <v>1743.700871327882</v>
       </c>
       <c r="Y35" t="n">
-        <v>873.0088133543854</v>
+        <v>1743.700871327882</v>
       </c>
     </row>
     <row r="36">
@@ -7010,22 +7010,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043167</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
-        <v>175.3166270668988</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210689</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>803.3877032987884</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>471.6552262893761</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C37" t="n">
-        <v>299.0935147726011</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D37" t="n">
-        <v>179.5506121696388</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="E37" t="n">
-        <v>179.5506121696388</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F37" t="n">
-        <v>179.5506121696388</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G37" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>359.5348022487599</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L37" t="n">
-        <v>901.6154856350189</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M37" t="n">
-        <v>1485.796561053334</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N37" t="n">
-        <v>2055.554276014868</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U37" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W37" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X37" t="n">
-        <v>890.893515694255</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y37" t="n">
-        <v>663.4738450083632</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>755.070575821621</v>
+        <v>1280.66136901061</v>
       </c>
       <c r="C38" t="n">
-        <v>316.9281030050443</v>
+        <v>842.5188961940335</v>
       </c>
       <c r="D38" t="n">
-        <v>316.9281030050443</v>
+        <v>842.5188961940335</v>
       </c>
       <c r="E38" t="n">
-        <v>316.9281030050443</v>
+        <v>408.7441513523286</v>
       </c>
       <c r="F38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
         <v>512.3249274228015</v>
@@ -7198,10 +7198,10 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
         <v>2108.089956131646</v>
@@ -7213,13 +7213,13 @@
         <v>2108.089956131646</v>
       </c>
       <c r="W38" t="n">
-        <v>2008.798733427564</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X38" t="n">
-        <v>1589.656270006875</v>
+        <v>1688.947492710957</v>
       </c>
       <c r="Y38" t="n">
-        <v>1181.370146306529</v>
+        <v>1280.66136901061</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M39" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
         <v>1614.947661807679</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.413848425154</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C40" t="n">
-        <v>753.852136908379</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D40" t="n">
-        <v>753.852136908379</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="E40" t="n">
-        <v>584.0941331591162</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F40" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G40" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1106.33113894078</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M40" t="n">
-        <v>1412.355695376305</v>
+        <v>897.9345369632205</v>
       </c>
       <c r="N40" t="n">
-        <v>1539.854607180194</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527956</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P40" t="n">
         <v>2105.896438675981</v>
@@ -7356,28 +7356,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>1730.787515635019</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1443.83200750545</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W40" t="n">
-        <v>1171.805603091741</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X40" t="n">
-        <v>926.413848425154</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y40" t="n">
-        <v>926.413848425154</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1318.626460527759</v>
+        <v>1003.577230747563</v>
       </c>
       <c r="C41" t="n">
         <v>880.4839877111824</v>
@@ -7402,10 +7402,10 @@
         <v>446.7092428694776</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
         <v>118.4065018001353</v>
@@ -7435,28 +7435,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2146.055047648795</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>2146.055047648795</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W41" t="n">
-        <v>2146.055047648795</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X41" t="n">
-        <v>1726.912584228106</v>
+        <v>1429.876801232471</v>
       </c>
       <c r="Y41" t="n">
-        <v>1318.626460527759</v>
+        <v>1429.876801232471</v>
       </c>
     </row>
     <row r="42">
@@ -7484,22 +7484,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M42" t="n">
-        <v>803.3877032987884</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>589.1109565208974</v>
+        <v>944.4666516418554</v>
       </c>
       <c r="C43" t="n">
-        <v>589.1109565208974</v>
+        <v>771.9049401250803</v>
       </c>
       <c r="D43" t="n">
-        <v>589.1109565208974</v>
+        <v>606.026947326603</v>
       </c>
       <c r="E43" t="n">
-        <v>419.3529527716346</v>
+        <v>436.2689435773403</v>
       </c>
       <c r="F43" t="n">
-        <v>242.6458987333908</v>
+        <v>259.5618895390965</v>
       </c>
       <c r="G43" t="n">
         <v>242.6458987333908</v>
@@ -7566,34 +7566,34 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>289.4920009833859</v>
+        <v>320.0013704257351</v>
       </c>
       <c r="L43" t="n">
-        <v>413.3628026016838</v>
+        <v>862.082053811994</v>
       </c>
       <c r="M43" t="n">
-        <v>997.5438780199984</v>
+        <v>992.6864461505235</v>
       </c>
       <c r="N43" t="n">
-        <v>1567.301592981533</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O43" t="n">
-        <v>2104.736723555076</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P43" t="n">
-        <v>2205.505779732759</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
         <v>2215.901038951971</v>
@@ -7611,10 +7611,10 @@
         <v>1136.285270360843</v>
       </c>
       <c r="X43" t="n">
-        <v>1008.349245925776</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y43" t="n">
-        <v>780.9295752398846</v>
+        <v>1136.285270360843</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>908.8487259814518</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="C44" t="n">
         <v>908.8487259814518</v>
@@ -7636,31 +7636,31 @@
         <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
         <v>1775.969506973259</v>
@@ -7672,28 +7672,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>2108.089956131646</v>
+        <v>2160.132777087342</v>
       </c>
       <c r="V44" t="n">
-        <v>1745.473006065472</v>
+        <v>2160.132777087342</v>
       </c>
       <c r="W44" t="n">
-        <v>1340.617551476505</v>
+        <v>1755.277322498375</v>
       </c>
       <c r="X44" t="n">
-        <v>1340.617551476505</v>
+        <v>1755.277322498375</v>
       </c>
       <c r="Y44" t="n">
-        <v>932.3314277761586</v>
+        <v>1346.991198798029</v>
       </c>
     </row>
     <row r="45">
@@ -7721,22 +7721,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
@@ -7782,55 +7782,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>559.5496021349386</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C46" t="n">
-        <v>559.5496021349386</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D46" t="n">
-        <v>393.6716093364612</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E46" t="n">
-        <v>223.9136055871985</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895472</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895472</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>320.0013704257351</v>
       </c>
       <c r="L46" t="n">
-        <v>326.7831174369939</v>
+        <v>862.082053811994</v>
       </c>
       <c r="M46" t="n">
-        <v>910.9641928553085</v>
+        <v>992.6864461505235</v>
       </c>
       <c r="N46" t="n">
-        <v>1480.721907816843</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O46" t="n">
-        <v>2018.157038390386</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.926094568069</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
         <v>2215.901038951971</v>
@@ -7839,19 +7839,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1783.161558749683</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V46" t="n">
-        <v>1496.206050620114</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W46" t="n">
-        <v>1224.179646206405</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X46" t="n">
-        <v>978.7878915398176</v>
+        <v>1284.110459942618</v>
       </c>
       <c r="Y46" t="n">
-        <v>751.3682208539258</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
   </sheetData>
@@ -8303,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.03872761749408227</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>7.475022536379896</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>7.987284604538047</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.448607918219231</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>12.05242684019321</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>12.1175109783257</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -8385,16 +8385,16 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>10.52184751552124</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>10.74826398523239</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.056781178203195</v>
+        <v>10.20938170063054</v>
       </c>
       <c r="Q7" t="n">
-        <v>11.86484077010362</v>
+        <v>11.86484077010331</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>24.61678044904274</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8540,16 +8540,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>23.46456242451583</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>24.55313958073653</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>23.52820329282204</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8619,13 +8619,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>32.05661388637267</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2.440333798690091</v>
+        <v>32.27675768710764</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>2.220189997955117</v>
       </c>
       <c r="P10" t="n">
         <v>34.17160518172662</v>
@@ -8850,25 +8850,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M13" t="n">
-        <v>264.6463123855406</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>156.7304232042861</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371567</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>158.2045317475392</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>105.0002374943213</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>263.8716243249365</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>148.2963841322177</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9655,10 +9655,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>478.6092875185457</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>187.2544722033713</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9801,10 +9801,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>103.3550520324814</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -9813,10 +9813,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>242.7895305103166</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>81.10537790171077</v>
+        <v>81.10537790171065</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>4.217953603099716</v>
+        <v>4.217953603098806</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,19 +10120,19 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>418.965250155396</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>207.940421495367</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>187.2544722033713</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>169.3062583899062</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10287,7 +10287,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>330.2437579493971</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>187.2544722033713</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10509,19 +10509,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>169.3062583899062</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>339.9726382326635</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>158.2045317475394</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371569</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>177.1920849464593</v>
+        <v>444.9969971592899</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>118.2717723303425</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.27619576520601</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>118.2717723303425</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>156.7304232042866</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.548759611115102</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>20.27323291946768</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>18.06287180835667</v>
       </c>
       <c r="E5" t="n">
-        <v>15.94918222434417</v>
+        <v>15.94918222434452</v>
       </c>
       <c r="F5" t="n">
-        <v>10.10094012594074</v>
+        <v>12.51558773715613</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22846,10 +22846,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>3.070971185676896</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>83.41140656376143</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -23272,10 +23272,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>190.6650602925688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>77.82944968061348</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>44.71309455508421</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>227.3596439627094</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>140.8706407322096</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.91154299085284</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>35.16512940359002</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23734,22 +23734,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>25.05526550886316</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>270.9754258534467</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>150.5269231278308</v>
+        <v>82.91154299085284</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>259.6043493602614</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>201.4211433652584</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.32631767148084</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2.360256329768731</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>106.2907841518581</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>90.50965010225616</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>85.15544934646397</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>108.1974190212835</v>
       </c>
     </row>
     <row r="27">
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>36.5247699688083</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.380424297641582</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>261.8228517671567</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>117.0385604749973</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>271.9031141283033</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>211.8947350295508</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>45.87173929355994</v>
+        <v>109.902598249743</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>65.66653148954418</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>302.5085895660368</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>109.902598249743</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>35.16512940358993</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>311.8987374823941</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>44.35018006274922</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>146.3469376859582</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>116.2811729292061</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>398.7887000032989</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>98.3488382942617</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>87.01543208710697</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>113.6820091741354</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>528142.3147237734</v>
+        <v>528142.3147237732</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>328856.1642204026</v>
+        <v>328856.1642204027</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>328856.1642204025</v>
+        <v>328856.1642204027</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>418490.1090277273</v>
+        <v>418490.1090277272</v>
       </c>
     </row>
     <row r="10">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>328856.1642204025</v>
+        <v>328856.1642204026</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>392538.4746673436</v>
+        <v>392538.4746673437</v>
       </c>
       <c r="C2" t="n">
-        <v>395663.3823998695</v>
+        <v>395663.3823998693</v>
       </c>
       <c r="D2" t="n">
         <v>402110.4899178062</v>
@@ -26325,13 +26325,13 @@
         <v>235946.3569512259</v>
       </c>
       <c r="F2" t="n">
-        <v>235946.3569512258</v>
+        <v>235946.3569512259</v>
       </c>
       <c r="G2" t="n">
         <v>235946.3569512259</v>
       </c>
       <c r="H2" t="n">
-        <v>235946.356951226</v>
+        <v>235946.3569512259</v>
       </c>
       <c r="I2" t="n">
         <v>283687.5872818137</v>
@@ -26340,7 +26340,7 @@
         <v>283687.5872818137</v>
       </c>
       <c r="K2" t="n">
-        <v>283687.5872818136</v>
+        <v>283687.5872818137</v>
       </c>
       <c r="L2" t="n">
         <v>283687.5872818137</v>
@@ -26352,7 +26352,7 @@
         <v>235946.356951226</v>
       </c>
       <c r="O2" t="n">
-        <v>235946.356951226</v>
+        <v>235946.3569512258</v>
       </c>
       <c r="P2" t="n">
         <v>235946.3569512259</v>
@@ -26368,10 +26368,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14144.82719286434</v>
+        <v>14144.82719286398</v>
       </c>
       <c r="D3" t="n">
-        <v>27489.28712274649</v>
+        <v>27489.28712274683</v>
       </c>
       <c r="E3" t="n">
         <v>512485.5095559817</v>
@@ -26392,13 +26392,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3471.332014400672</v>
+        <v>3471.332014400582</v>
       </c>
       <c r="L3" t="n">
-        <v>7042.810807378643</v>
+        <v>7042.810807378732</v>
       </c>
       <c r="M3" t="n">
-        <v>97299.51484534086</v>
+        <v>97299.51484534089</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
         <v>297208.5166434598</v>
@@ -26426,25 +26426,25 @@
         <v>294121.7142251048</v>
       </c>
       <c r="E4" t="n">
-        <v>14728.79099426161</v>
+        <v>14728.7909942616</v>
       </c>
       <c r="F4" t="n">
-        <v>14728.79099426159</v>
+        <v>14728.7909942616</v>
       </c>
       <c r="G4" t="n">
-        <v>14728.79099426159</v>
+        <v>14728.7909942616</v>
       </c>
       <c r="H4" t="n">
         <v>14728.7909942616</v>
       </c>
       <c r="I4" t="n">
-        <v>40805.18316884376</v>
+        <v>40805.18316884375</v>
       </c>
       <c r="J4" t="n">
+        <v>40805.18316884374</v>
+      </c>
+      <c r="K4" t="n">
         <v>40805.18316884375</v>
-      </c>
-      <c r="K4" t="n">
-        <v>40805.18316884374</v>
       </c>
       <c r="L4" t="n">
         <v>40805.18316884375</v>
@@ -26453,7 +26453,7 @@
         <v>14728.7909942616</v>
       </c>
       <c r="N4" t="n">
-        <v>14728.79099426162</v>
+        <v>14728.7909942616</v>
       </c>
       <c r="O4" t="n">
         <v>14728.7909942616</v>
@@ -26472,7 +26472,7 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>34681.96937349502</v>
+        <v>34681.96937349499</v>
       </c>
       <c r="D5" t="n">
         <v>36853.56981021012</v>
@@ -26502,16 +26502,16 @@
         <v>55677.28176780177</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60180.15835551079</v>
+        <v>60148.25163800923</v>
       </c>
       <c r="C6" t="n">
-        <v>49628.06919005037</v>
+        <v>49606.57883165745</v>
       </c>
       <c r="D6" t="n">
-        <v>43645.91875974469</v>
+        <v>43645.91875974452</v>
       </c>
       <c r="E6" t="n">
-        <v>-337319.0248086553</v>
+        <v>-337872.9052518772</v>
       </c>
       <c r="F6" t="n">
-        <v>175166.4847473264</v>
+        <v>174612.6043041046</v>
       </c>
       <c r="G6" t="n">
-        <v>175166.4847473265</v>
+        <v>174612.6043041046</v>
       </c>
       <c r="H6" t="n">
-        <v>175166.4847473266</v>
+        <v>174612.6043041046</v>
       </c>
       <c r="I6" t="n">
-        <v>145103.0026308998</v>
+        <v>144708.2596221132</v>
       </c>
       <c r="J6" t="n">
-        <v>187205.1223451681</v>
+        <v>186810.3793363815</v>
       </c>
       <c r="K6" t="n">
-        <v>183733.7903307674</v>
+        <v>183339.0473219809</v>
       </c>
       <c r="L6" t="n">
-        <v>180162.3115377896</v>
+        <v>179767.5685290028</v>
       </c>
       <c r="M6" t="n">
-        <v>77866.96990198569</v>
+        <v>77313.08945876372</v>
       </c>
       <c r="N6" t="n">
-        <v>175166.4847473266</v>
+        <v>174612.6043041046</v>
       </c>
       <c r="O6" t="n">
-        <v>175166.4847473266</v>
+        <v>174612.6043041045</v>
       </c>
       <c r="P6" t="n">
-        <v>175166.4847473265</v>
+        <v>174612.6043041045</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10.74817482675476</v>
+        <v>10.74817482675448</v>
       </c>
       <c r="D3" t="n">
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932211</v>
@@ -26770,16 +26770,16 @@
         <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>13.48781516894358</v>
+        <v>13.48781516894323</v>
       </c>
       <c r="D4" t="n">
         <v>41.31500304752735</v>
@@ -26801,10 +26801,10 @@
         <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
         <v>590.0818943619341</v>
@@ -26822,16 +26822,16 @@
         <v>748.4075614369992</v>
       </c>
       <c r="M4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26962,10 +26962,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10.74817482675476</v>
+        <v>10.74817482675448</v>
       </c>
       <c r="D3" t="n">
-        <v>22.00492723381684</v>
+        <v>22.00492723381712</v>
       </c>
       <c r="E3" t="n">
         <v>433.9488260326495</v>
@@ -27014,10 +27014,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>13.48781516894358</v>
+        <v>13.48781516894323</v>
       </c>
       <c r="D4" t="n">
-        <v>27.82718787858376</v>
+        <v>27.82718787858411</v>
       </c>
       <c r="E4" t="n">
         <v>548.7668913144067</v>
@@ -27038,13 +27038,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>13.48781516894358</v>
+        <v>13.48781516894323</v>
       </c>
       <c r="L4" t="n">
-        <v>27.82718787858376</v>
+        <v>27.82718787858411</v>
       </c>
       <c r="M4" t="n">
-        <v>390.4412242393415</v>
+        <v>390.4412242393416</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>13.48781516894358</v>
+        <v>13.48781516894323</v>
       </c>
       <c r="L4" t="n">
-        <v>27.82718787858376</v>
+        <v>27.82718787858411</v>
       </c>
       <c r="M4" t="n">
         <v>548.7668913144067</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>81.83073584638458</v>
+        <v>81.8307358463846</v>
       </c>
       <c r="T5" t="n">
         <v>217.6774085831124</v>
@@ -27706,13 +27706,13 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
-        <v>69.06218483105641</v>
+        <v>82.55</v>
       </c>
       <c r="G6" t="n">
         <v>84.50812012081286</v>
       </c>
       <c r="H6" t="n">
-        <v>41.09501753960517</v>
+        <v>27.60720237066194</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,19 +27745,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>48.9036480034656</v>
+        <v>62.39146317240919</v>
       </c>
       <c r="T6" t="n">
-        <v>116.9036049841084</v>
+        <v>116.9036049841087</v>
       </c>
       <c r="U6" t="n">
-        <v>174.5716605618955</v>
+        <v>161.0838453929523</v>
       </c>
       <c r="V6" t="n">
-        <v>197.1263427586206</v>
+        <v>183.6385275896774</v>
       </c>
       <c r="W6" t="n">
-        <v>169.9817115551944</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X6" t="n">
         <v>153.3187614035088</v>
@@ -27776,25 +27776,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>158.9560268008021</v>
       </c>
       <c r="D7" t="n">
-        <v>152.339145269687</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>154.5726085428269</v>
       </c>
       <c r="F7" t="n">
-        <v>161.4521683289178</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>150.4281651008814</v>
+        <v>163.915980269825</v>
       </c>
       <c r="H7" t="n">
         <v>138.3308293701265</v>
       </c>
       <c r="I7" t="n">
-        <v>87.19048149820412</v>
+        <v>73.70266632926091</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>6.844344753834498</v>
+        <v>6.844344753834871</v>
       </c>
       <c r="S7" t="n">
         <v>157.3111804060835</v>
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.0908620689655</v>
+        <v>78.77585902143818</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>68.3245351353053</v>
       </c>
       <c r="D9" t="n">
         <v>52.82438291738493</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>20.19730100379491</v>
+        <v>61.51230405132225</v>
       </c>
       <c r="T9" t="n">
         <v>128.5928940176698</v>
@@ -27997,7 +27997,7 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>116.25139998709</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>148.5854294842699</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -28019,10 +28019,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>126.7454206642428</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>133.624980450334</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.8762992535017</v>
@@ -28031,7 +28031,7 @@
         <v>137.9780290613614</v>
       </c>
       <c r="I10" t="n">
-        <v>49.6069104321475</v>
+        <v>44.68216206888224</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>115.304645464995</v>
+        <v>156.6196485125224</v>
       </c>
       <c r="T10" t="n">
         <v>243.1682919906331</v>
@@ -28076,10 +28076,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>201.6228340723943</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>207.3031764290495</v>
       </c>
     </row>
     <row r="11">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04320874302212964</v>
+        <v>0.04320874302212852</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4425115394753853</v>
+        <v>0.4425115394753739</v>
       </c>
       <c r="I5" t="n">
-        <v>1.665805065360654</v>
+        <v>1.665805065360612</v>
       </c>
       <c r="J5" t="n">
-        <v>3.667288053074479</v>
+        <v>3.667288053074384</v>
       </c>
       <c r="K5" t="n">
-        <v>5.496314145201228</v>
+        <v>5.496314145201086</v>
       </c>
       <c r="L5" t="n">
-        <v>6.818663714464729</v>
+        <v>6.818663714464553</v>
       </c>
       <c r="M5" t="n">
-        <v>7.587077198184526</v>
+        <v>7.587077198184331</v>
       </c>
       <c r="N5" t="n">
-        <v>7.709844039296153</v>
+        <v>7.709844039295954</v>
       </c>
       <c r="O5" t="n">
-        <v>7.280187100869851</v>
+        <v>7.280187100869663</v>
       </c>
       <c r="P5" t="n">
-        <v>6.213471257511024</v>
+        <v>6.213471257510864</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.666058148031006</v>
+        <v>4.666058148030885</v>
       </c>
       <c r="R5" t="n">
-        <v>2.714211203863854</v>
+        <v>2.714211203863783</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9846192316167801</v>
+        <v>0.9846192316167548</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1891462725793726</v>
+        <v>0.1891462725793677</v>
       </c>
       <c r="U5" t="n">
-        <v>0.00345669944177037</v>
+        <v>0.003456699441770282</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02311871566509514</v>
+        <v>0.02311871566509454</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2232781223444715</v>
+        <v>0.2232781223444657</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7959733244341967</v>
+        <v>0.7959733244341761</v>
       </c>
       <c r="J6" t="n">
-        <v>2.18421164097287</v>
+        <v>2.184211640972814</v>
       </c>
       <c r="K6" t="n">
-        <v>3.733165590534244</v>
+        <v>3.733165590534148</v>
       </c>
       <c r="L6" t="n">
-        <v>5.019701837721644</v>
+        <v>5.019701837721515</v>
       </c>
       <c r="M6" t="n">
-        <v>5.857755280581341</v>
+        <v>5.85775528058119</v>
       </c>
       <c r="N6" t="n">
-        <v>6.012792632563493</v>
+        <v>6.012792632563339</v>
       </c>
       <c r="O6" t="n">
-        <v>5.500530564405333</v>
+        <v>5.500530564405191</v>
       </c>
       <c r="P6" t="n">
-        <v>4.41466071327593</v>
+        <v>4.414660713275817</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.951083775074249</v>
+        <v>2.951083775074173</v>
       </c>
       <c r="R6" t="n">
-        <v>1.435388328750381</v>
+        <v>1.435388328750344</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4294200036915695</v>
+        <v>0.4294200036915584</v>
       </c>
       <c r="T6" t="n">
-        <v>0.09318464779044922</v>
+        <v>0.09318464779044681</v>
       </c>
       <c r="U6" t="n">
-        <v>0.001520968135861523</v>
+        <v>0.001520968135861483</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01938195460562333</v>
+        <v>0.01938195460562283</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1723231964027239</v>
+        <v>0.1723231964027195</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5828682348672908</v>
+        <v>0.5828682348672758</v>
       </c>
       <c r="J7" t="n">
-        <v>1.370304190617569</v>
+        <v>1.370304190617534</v>
       </c>
       <c r="K7" t="n">
-        <v>2.251830725998782</v>
+        <v>2.251830725998725</v>
       </c>
       <c r="L7" t="n">
-        <v>2.881568051094218</v>
+        <v>2.881568051094144</v>
       </c>
       <c r="M7" t="n">
-        <v>3.038209484225118</v>
+        <v>3.03820948422504</v>
       </c>
       <c r="N7" t="n">
-        <v>2.965967653422343</v>
+        <v>2.965967653422267</v>
       </c>
       <c r="O7" t="n">
-        <v>2.739551183711197</v>
+        <v>2.739551183711126</v>
       </c>
       <c r="P7" t="n">
-        <v>2.344159309756479</v>
+        <v>2.344159309756418</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.622974398839968</v>
+        <v>1.622974398839926</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8714831589037542</v>
+        <v>0.8714831589037317</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3377746088998174</v>
+        <v>0.3377746088998086</v>
       </c>
       <c r="T7" t="n">
-        <v>0.08281380604220874</v>
+        <v>0.0828138060422066</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001057197523943092</v>
+        <v>0.001057197523943065</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -32010,7 +32010,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
         <v>316.116681354841</v>
@@ -32019,19 +32019,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742736</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
@@ -32101,7 +32101,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
@@ -32110,7 +32110,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
         <v>97.77787936116989</v>
@@ -32168,16 +32168,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
         <v>37.84111043195198</v>
@@ -32189,7 +32189,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
@@ -32247,7 +32247,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.116681354841</v>
@@ -32256,19 +32256,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,34 +32311,34 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
@@ -32347,7 +32347,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
         <v>97.77787936116989</v>
@@ -32405,16 +32405,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
         <v>37.84111043195198</v>
@@ -32426,7 +32426,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32560,7 +32560,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -32721,7 +32721,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.116681354841</v>
@@ -32730,19 +32730,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -32812,7 +32812,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
@@ -32821,7 +32821,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
         <v>97.77787936116989</v>
@@ -32879,16 +32879,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
@@ -32900,7 +32900,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H26" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
@@ -32958,7 +32958,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
         <v>316.116681354841</v>
@@ -32967,19 +32967,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,25 +33022,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562331</v>
       </c>
       <c r="K27" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108053</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
@@ -33049,7 +33049,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
@@ -33058,7 +33058,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
         <v>97.77787936116989</v>
@@ -33116,16 +33116,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R28" t="n">
         <v>37.84111043195198</v>
@@ -33137,7 +33137,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
@@ -33195,7 +33195,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
         <v>316.116681354841</v>
@@ -33204,19 +33204,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,25 +33259,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917232</v>
@@ -33286,7 +33286,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
@@ -33295,7 +33295,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
         <v>97.77787936116989</v>
@@ -33353,16 +33353,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
@@ -33374,7 +33374,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
@@ -33432,7 +33432,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
         <v>316.116681354841</v>
@@ -33441,19 +33441,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,25 +33496,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562331</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415863</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
@@ -33523,7 +33523,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
@@ -33532,7 +33532,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
         <v>97.77787936116989</v>
@@ -33590,16 +33590,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
@@ -33611,7 +33611,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062837</v>
@@ -33669,28 +33669,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916864</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062837</v>
@@ -33906,28 +33906,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062837</v>
@@ -34143,28 +34143,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646698</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062837</v>
@@ -34380,28 +34380,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U44" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.841315974274</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34932,34 +34932,34 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1.253183586229257</v>
+        <v>1.253183586229214</v>
       </c>
       <c r="J5" t="n">
-        <v>3.667288053074479</v>
+        <v>3.667288053074384</v>
       </c>
       <c r="K5" t="n">
-        <v>5.496314145201227</v>
+        <v>5.496314145201086</v>
       </c>
       <c r="L5" t="n">
-        <v>6.818663714464734</v>
+        <v>6.818663714464556</v>
       </c>
       <c r="M5" t="n">
-        <v>7.587077198184531</v>
+        <v>7.587077198184332</v>
       </c>
       <c r="N5" t="n">
-        <v>7.709844039296151</v>
+        <v>7.709844039295952</v>
       </c>
       <c r="O5" t="n">
-        <v>7.280187100869853</v>
+        <v>7.280187100869668</v>
       </c>
       <c r="P5" t="n">
-        <v>6.213471257511024</v>
+        <v>6.213471257510861</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.666058148031006</v>
+        <v>4.666058148030885</v>
       </c>
       <c r="R5" t="n">
-        <v>2.714211203863847</v>
+        <v>2.714211203863783</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7959733244341967</v>
+        <v>0.7959733244341762</v>
       </c>
       <c r="J6" t="n">
-        <v>2.18421164097287</v>
+        <v>2.184211640972814</v>
       </c>
       <c r="K6" t="n">
-        <v>3.733165590534244</v>
+        <v>3.733165590534148</v>
       </c>
       <c r="L6" t="n">
-        <v>5.019701837721644</v>
+        <v>5.019701837721515</v>
       </c>
       <c r="M6" t="n">
-        <v>5.85775528058134</v>
+        <v>5.896482898075273</v>
       </c>
       <c r="N6" t="n">
-        <v>6.012792632563492</v>
+        <v>13.48781516894324</v>
       </c>
       <c r="O6" t="n">
-        <v>5.500530564405331</v>
+        <v>13.48781516894324</v>
       </c>
       <c r="P6" t="n">
-        <v>4.414660713275929</v>
+        <v>4.414660713275815</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.399691693293484</v>
+        <v>2.951083775074174</v>
       </c>
       <c r="R6" t="n">
-        <v>13.48781516894358</v>
+        <v>1.435388328750342</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.370304190617569</v>
+        <v>13.48781516894323</v>
       </c>
       <c r="K7" t="n">
-        <v>2.251830725998782</v>
+        <v>2.251830725998724</v>
       </c>
       <c r="L7" t="n">
-        <v>2.881568051094218</v>
+        <v>2.881568051094145</v>
       </c>
       <c r="M7" t="n">
-        <v>3.038209484225119</v>
+        <v>3.038209484225039</v>
       </c>
       <c r="N7" t="n">
-        <v>13.48781516894359</v>
+        <v>2.965967653422265</v>
       </c>
       <c r="O7" t="n">
-        <v>13.48781516894358</v>
+        <v>2.739551183711125</v>
       </c>
       <c r="P7" t="n">
-        <v>3.400940487959673</v>
+        <v>12.55354101038696</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.48781516894358</v>
+        <v>13.48781516894324</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>27.04236395069828</v>
+        <v>2.425583501655538</v>
       </c>
       <c r="J9" t="n">
-        <v>6.655986523460122</v>
+        <v>6.655986523460121</v>
       </c>
       <c r="K9" t="n">
         <v>11.37614111852891</v>
@@ -35260,16 +35260,16 @@
         <v>15.29662563687356</v>
       </c>
       <c r="M9" t="n">
-        <v>41.31500304752735</v>
+        <v>17.85044062301152</v>
       </c>
       <c r="N9" t="n">
         <v>18.32288867065883</v>
       </c>
       <c r="O9" t="n">
-        <v>16.76186346679083</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="P9" t="n">
-        <v>13.45287318408649</v>
+        <v>36.98107647690853</v>
       </c>
       <c r="Q9" t="n">
         <v>8.99288945632901</v>
@@ -35339,13 +35339,13 @@
         <v>8.781052968829309</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752736</v>
+        <v>9.258389161154689</v>
       </c>
       <c r="N10" t="n">
-        <v>11.4785791591098</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="O10" t="n">
-        <v>8.348282472750284</v>
+        <v>10.5684724707054</v>
       </c>
       <c r="P10" t="n">
         <v>41.31500304752734</v>
@@ -35406,16 +35406,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35424,10 +35424,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35488,10 +35488,10 @@
         <v>34.56235976916782</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
         <v>217.9630089646691</v>
@@ -35503,10 +35503,10 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35570,25 +35570,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
-        <v>547.5562458447059</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M13" t="n">
-        <v>396.5699410103177</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125707</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35664,7 +35664,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742736</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.081894361934</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
-        <v>258.5173486362896</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,13 +35880,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766673</v>
@@ -35898,10 +35898,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646689</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -35980,7 +35980,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619339</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>277.1599674523491</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766673</v>
@@ -36138,7 +36138,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916793</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36208,16 +36208,16 @@
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>202.7781168554911</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>547.556245844706</v>
+        <v>388.9936461616011</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O22" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
         <v>70.4719911420766</v>
@@ -36354,13 +36354,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K23" t="n">
-        <v>386.9546168385014</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
         <v>296.0766412766673</v>
@@ -36375,10 +36375,10 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
-        <v>748.4075614369992</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>389.8617398913184</v>
       </c>
       <c r="R23" t="n">
         <v>117.855135640546</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916787</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562336</v>
@@ -36442,25 +36442,25 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108053</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,10 +36521,10 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447059</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M25" t="n">
-        <v>235.2786806572585</v>
+        <v>596.048746989336</v>
       </c>
       <c r="N25" t="n">
         <v>575.5128433954892</v>
@@ -36533,13 +36533,13 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485101</v>
+        <v>344.5764559423201</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207615</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,10 +36591,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
-        <v>240.3445448142817</v>
+        <v>240.3445448142816</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062837</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916787</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562331</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108053</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>101.9958329642696</v>
+        <v>101.9958329642687</v>
       </c>
       <c r="L28" t="n">
         <v>547.556245844706</v>
@@ -36770,13 +36770,13 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485101</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207615</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>748.4075614369992</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>524.0571028502081</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>389.8617398913184</v>
       </c>
       <c r="R29" t="n">
         <v>117.855135640546</v>
@@ -36913,7 +36913,7 @@
         <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624557</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572664</v>
+        <v>267.0841377510761</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M31" t="n">
-        <v>596.048746989336</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N31" t="n">
         <v>575.5128433954892</v>
@@ -37007,13 +37007,13 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>432.0306833814006</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q31" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,16 +37065,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
         <v>598.8903663599629</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37089,10 +37089,10 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>389.8617398913184</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562331</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415863</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
@@ -37162,7 +37162,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
@@ -37229,19 +37229,19 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572664</v>
+        <v>267.0841377510761</v>
       </c>
       <c r="L34" t="n">
-        <v>547.5562458447059</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M34" t="n">
-        <v>596.048746989336</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>458.9280739374733</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
         <v>452.8039900485105</v>
@@ -37250,7 +37250,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,28 +37302,28 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916864</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
         <v>62.32672164233622</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K37" t="n">
-        <v>255.9824111087092</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
-        <v>590.081894361934</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N37" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207615</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
@@ -37557,10 +37557,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002376</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
         <v>62.32672164233622</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>309.1157135712365</v>
+        <v>576.9206257840672</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O40" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
@@ -37791,10 +37791,10 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184536</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646698</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
         <v>62.32672164233622</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116988</v>
+        <v>216.0496516915124</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>139.7481869072822</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
@@ -38040,7 +38040,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
-        <v>238.841315974274</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
         <v>62.32672164233622</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116988</v>
+        <v>216.0496516915124</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>227.2024143463627</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
